--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Reeves.Spring.011420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Reeves.Spring.011420.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2191,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2485,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3157,12 +3157,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3199,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3619,12 +3619,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5005,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5387,12 +5387,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5601,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6189,12 +6189,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6273,12 +6273,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6315,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6357,12 +6357,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6441,12 +6441,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7205,12 +7205,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7373,12 +7373,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8213,12 +8213,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8591,12 +8591,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9141,12 +9141,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9649,12 +9649,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9691,12 +9691,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10995,12 +10995,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11083,12 +11083,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11963,12 +11963,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12899,12 +12899,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13445,12 +13445,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13701,12 +13701,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13957,12 +13957,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14969,12 +14969,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15393,12 +15393,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15561,12 +15561,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15603,12 +15603,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15687,12 +15687,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16107,12 +16107,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16401,12 +16401,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16905,12 +16905,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16989,12 +16989,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17157,12 +17157,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17493,12 +17493,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17745,12 +17745,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17913,12 +17913,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18375,12 +18375,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19047,12 +19047,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19215,12 +19215,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19341,12 +19341,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19467,12 +19467,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19509,12 +19509,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19677,12 +19677,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20139,12 +20139,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20599,12 +20599,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21229,12 +21229,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21775,12 +21775,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21859,12 +21859,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21901,12 +21901,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23037,12 +23037,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23503,12 +23503,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23839,12 +23839,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
